--- a/Integration List.xlsx
+++ b/Integration List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Integration_Hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CB66A9-C052-4369-AE3F-BA8CEDE442F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45432BCF-DC09-4D0E-96BA-3A975BA63198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{199BEFDA-6D70-4001-AC3C-82D1565D7EFD}"/>
   </bookViews>
@@ -3483,19 +3483,19 @@
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D9CD4279-3D16-4470-8A60-FF492F9935B7}" name="Integration Name" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{71BAAA46-203B-4F13-88C2-8B0A20CCD608}" name="Service Website" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{68BE37D1-24AA-4951-B61B-A66DE0F8E323}" name="API Documentation" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{7A555FD3-436A-44A0-995F-B8AE4C683CFB}" name="Github Repository" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{04342CFE-80D7-4551-A592-DBC1B2EC691E}" name="Control-M Documentation" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{198E1837-E13F-4AEA-A17D-43185D13455B}" name="Developer" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{AB9BA117-5D37-4E36-A590-322C0C292301}" name="Integration Category" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D7E04771-C5CC-4601-9C93-300EC616E6FE}" name="3 Letter Code Name" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{1F563BE5-FA12-4F37-A6E2-F2A86E121DA3}" name="Current Version" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{B1C413C5-BC66-4703-A80E-C5146F0BE95C}" name="Release Date" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{72E937D1-1E81-48AF-9D5B-5296FD29085D}" name="Popularity" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D93936C9-0BF2-4880-AC31-E950E3533A2A}" name="Provision Integration Linux" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{85AF1488-40E5-4028-A90A-1DEBE758E866}" name="Provision Integration Windows" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{6F826D3E-8B6A-44DC-B7BD-BAD899C41737}" name="Remove Integration" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{198E1837-E13F-4AEA-A17D-43185D13455B}" name="Developer" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{AB9BA117-5D37-4E36-A590-322C0C292301}" name="Integration Category" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{D7E04771-C5CC-4601-9C93-300EC616E6FE}" name="3 Letter Code Name" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{1F563BE5-FA12-4F37-A6E2-F2A86E121DA3}" name="Current Version" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{B1C413C5-BC66-4703-A80E-C5146F0BE95C}" name="Release Date" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{72E937D1-1E81-48AF-9D5B-5296FD29085D}" name="Popularity" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D93936C9-0BF2-4880-AC31-E950E3533A2A}" name="Provision Integration Linux" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{85AF1488-40E5-4028-A90A-1DEBE758E866}" name="Provision Integration Windows" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{71BAAA46-203B-4F13-88C2-8B0A20CCD608}" name="Service Website" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{68BE37D1-24AA-4951-B61B-A66DE0F8E323}" name="API Documentation" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{7A555FD3-436A-44A0-995F-B8AE4C683CFB}" name="Github Repository" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{04342CFE-80D7-4551-A592-DBC1B2EC691E}" name="Control-M Documentation" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{6F826D3E-8B6A-44DC-B7BD-BAD899C41737}" name="Remove Integration" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3821,24 +3821,27 @@
   <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="66.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="41.28515625" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" customWidth="1"/>
+    <col min="17" max="17" width="46.42578125" customWidth="1"/>
+    <col min="18" max="18" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3846,40 +3849,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>517</v>
@@ -3889,41 +3892,41 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="F2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J2" t="s">
-        <v>518</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>4</v>
@@ -3933,41 +3936,41 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="F3" t="s">
-        <v>563</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J3" t="s">
-        <v>519</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>8</v>
@@ -3977,41 +3980,41 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="F4" t="s">
-        <v>564</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J4" t="s">
-        <v>520</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>492</v>
@@ -4021,41 +4024,41 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>921</v>
-      </c>
-      <c r="F5" t="s">
-        <v>563</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J5" t="s">
-        <v>521</v>
-      </c>
-      <c r="K5" s="2">
-        <v>5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>494</v>
@@ -4065,41 +4068,41 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="F6" t="s">
-        <v>565</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J6" t="s">
-        <v>522</v>
-      </c>
-      <c r="K6" s="1">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>18</v>
@@ -4109,41 +4112,41 @@
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="F7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J7" t="s">
-        <v>523</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>496</v>
@@ -4153,41 +4156,41 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F8" t="s">
+        <v>524</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>924</v>
-      </c>
-      <c r="F8" t="s">
-        <v>565</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J8" t="s">
-        <v>524</v>
-      </c>
-      <c r="K8" s="2">
-        <v>4</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>25</v>
@@ -4197,41 +4200,41 @@
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F9" t="s">
+        <v>525</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>925</v>
-      </c>
-      <c r="F9" t="s">
-        <v>565</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J9" t="s">
-        <v>525</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>29</v>
@@ -4241,41 +4244,41 @@
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F10" t="s">
+        <v>526</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>926</v>
-      </c>
-      <c r="F10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J10" t="s">
-        <v>526</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>33</v>
@@ -4285,41 +4288,41 @@
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="F11" t="s">
-        <v>562</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J11" t="s">
-        <v>527</v>
-      </c>
-      <c r="K11" s="2">
-        <v>4</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>37</v>
@@ -4329,41 +4332,41 @@
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F12" t="s">
+        <v>528</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>928</v>
-      </c>
-      <c r="F12" t="s">
-        <v>565</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J12" t="s">
-        <v>528</v>
-      </c>
-      <c r="K12" s="1">
-        <v>3</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>41</v>
@@ -4373,41 +4376,41 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F13" t="s">
+        <v>529</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="F13" t="s">
-        <v>566</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J13" t="s">
-        <v>529</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>45</v>
@@ -4417,41 +4420,41 @@
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F14" t="s">
+        <v>530</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="F14" t="s">
-        <v>564</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J14" t="s">
-        <v>530</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -4461,41 +4464,41 @@
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F15" t="s">
+        <v>529</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="F15" t="s">
-        <v>564</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J15" t="s">
-        <v>529</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>53</v>
@@ -4505,41 +4508,41 @@
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F16" t="s">
+        <v>531</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>932</v>
-      </c>
-      <c r="F16" t="s">
-        <v>565</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J16" t="s">
-        <v>531</v>
-      </c>
-      <c r="K16" s="2">
-        <v>4</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>57</v>
@@ -4549,41 +4552,41 @@
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
+        <v>564</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F17" t="s">
+        <v>532</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>933</v>
-      </c>
-      <c r="F17" t="s">
-        <v>564</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J17" t="s">
-        <v>532</v>
-      </c>
-      <c r="K17" s="2">
-        <v>3</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>61</v>
@@ -4593,41 +4596,41 @@
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
+        <v>565</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F18" t="s">
+        <v>518</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>934</v>
-      </c>
-      <c r="F18" t="s">
-        <v>565</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J18" t="s">
-        <v>518</v>
-      </c>
-      <c r="K18" s="1">
-        <v>5</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>65</v>
@@ -4637,41 +4640,41 @@
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
+        <v>567</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F19" t="s">
+        <v>533</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>935</v>
-      </c>
-      <c r="F19" t="s">
-        <v>567</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J19" t="s">
-        <v>533</v>
-      </c>
-      <c r="K19" s="2">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>69</v>
@@ -4681,41 +4684,41 @@
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F20" t="s">
+        <v>534</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>936</v>
-      </c>
-      <c r="F20" t="s">
-        <v>563</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J20" t="s">
-        <v>534</v>
-      </c>
-      <c r="K20" s="2">
-        <v>4</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>73</v>
@@ -4725,41 +4728,41 @@
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
+        <v>562</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21" t="s">
+        <v>524</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>937</v>
-      </c>
-      <c r="F21" t="s">
-        <v>562</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J21" t="s">
-        <v>524</v>
-      </c>
-      <c r="K21" s="1">
-        <v>4</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>77</v>
@@ -4769,41 +4772,41 @@
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
+        <v>568</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F22" t="s">
+        <v>535</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>938</v>
-      </c>
-      <c r="F22" t="s">
-        <v>568</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J22" t="s">
-        <v>535</v>
-      </c>
-      <c r="K22" s="2">
-        <v>5</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>81</v>
@@ -4813,41 +4816,41 @@
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
+        <v>564</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F23" t="s">
+        <v>536</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>939</v>
-      </c>
-      <c r="F23" t="s">
-        <v>564</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J23" t="s">
-        <v>536</v>
-      </c>
-      <c r="K23" s="2">
-        <v>3</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>85</v>
@@ -4857,41 +4860,41 @@
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F24" t="s">
+        <v>537</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>940</v>
-      </c>
-      <c r="F24" t="s">
-        <v>566</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J24" t="s">
-        <v>537</v>
-      </c>
-      <c r="K24" s="1">
-        <v>5</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>89</v>
@@ -4901,41 +4904,41 @@
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>941</v>
-      </c>
-      <c r="F25" t="s">
-        <v>564</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J25" t="s">
-        <v>530</v>
-      </c>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>93</v>
@@ -4945,41 +4948,41 @@
       <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F26" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>942</v>
-      </c>
-      <c r="F26" t="s">
-        <v>563</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J26" t="s">
-        <v>521</v>
-      </c>
-      <c r="K26" s="2">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>499</v>
@@ -4989,41 +4992,41 @@
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
+        <v>563</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>943</v>
-      </c>
-      <c r="F27" t="s">
-        <v>563</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J27" t="s">
-        <v>538</v>
-      </c>
-      <c r="K27" s="1">
-        <v>3</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>100</v>
@@ -5033,41 +5036,41 @@
       <c r="A28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>562</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F28" t="s">
+        <v>521</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="F28" t="s">
-        <v>562</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J28" t="s">
-        <v>521</v>
-      </c>
-      <c r="K28" s="2">
-        <v>5</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>104</v>
@@ -5077,41 +5080,41 @@
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>564</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F29" t="s">
+        <v>539</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="F29" t="s">
-        <v>564</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J29" t="s">
-        <v>539</v>
-      </c>
-      <c r="K29" s="2">
-        <v>5</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>108</v>
@@ -5121,41 +5124,41 @@
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
+        <v>563</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F30" t="s">
+        <v>540</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>946</v>
-      </c>
-      <c r="F30" t="s">
-        <v>563</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J30" t="s">
-        <v>540</v>
-      </c>
-      <c r="K30" s="1">
-        <v>4</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>112</v>
@@ -5165,41 +5168,41 @@
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F31" t="s">
+        <v>540</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="F31" t="s">
-        <v>563</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J31" t="s">
-        <v>540</v>
-      </c>
-      <c r="K31" s="2">
-        <v>4</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>116</v>
@@ -5209,41 +5212,41 @@
       <c r="A32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
+        <v>562</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F32" t="s">
+        <v>538</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>948</v>
-      </c>
-      <c r="F32" t="s">
-        <v>562</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J32" t="s">
-        <v>538</v>
-      </c>
-      <c r="K32" s="2">
-        <v>4</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>120</v>
@@ -5253,41 +5256,41 @@
       <c r="A33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
+        <v>565</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F33" t="s">
+        <v>534</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>917</v>
-      </c>
-      <c r="F33" t="s">
-        <v>565</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J33" t="s">
-        <v>534</v>
-      </c>
-      <c r="K33" s="1">
-        <v>3</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>124</v>
@@ -5297,41 +5300,41 @@
       <c r="A34" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
+        <v>566</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F34" t="s">
+        <v>541</v>
+      </c>
+      <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="F34" t="s">
-        <v>566</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J34" t="s">
-        <v>541</v>
-      </c>
-      <c r="K34" s="2">
-        <v>3</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>128</v>
@@ -5341,41 +5344,41 @@
       <c r="A35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
+        <v>566</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F35" t="s">
+        <v>542</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="F35" t="s">
-        <v>566</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J35" t="s">
-        <v>542</v>
-      </c>
-      <c r="K35" s="2">
-        <v>4</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>132</v>
@@ -5385,41 +5388,41 @@
       <c r="A36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
+        <v>569</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F36" t="s">
+        <v>535</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="F36" t="s">
-        <v>569</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J36" t="s">
-        <v>535</v>
-      </c>
-      <c r="K36" s="1">
-        <v>5</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>136</v>
@@ -5429,41 +5432,41 @@
       <c r="A37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F37" t="s">
+        <v>543</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="F37" t="s">
-        <v>566</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J37" t="s">
-        <v>543</v>
-      </c>
-      <c r="K37" s="2">
-        <v>5</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>140</v>
@@ -5473,41 +5476,41 @@
       <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
+        <v>562</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F38" t="s">
+        <v>544</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>912</v>
-      </c>
-      <c r="F38" t="s">
-        <v>562</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J38" t="s">
-        <v>544</v>
-      </c>
-      <c r="K38" s="2">
-        <v>5</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>144</v>
@@ -5517,41 +5520,41 @@
       <c r="A39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
+        <v>567</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F39" t="s">
+        <v>545</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="F39" t="s">
-        <v>567</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="J39" t="s">
-        <v>545</v>
-      </c>
-      <c r="K39" s="1">
-        <v>5</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>148</v>
@@ -5561,41 +5564,41 @@
       <c r="A40" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
+        <v>564</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F40" t="s">
+        <v>546</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="F40" t="s">
-        <v>564</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J40" t="s">
-        <v>546</v>
-      </c>
-      <c r="K40" s="2">
-        <v>3</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>152</v>
@@ -5605,41 +5608,41 @@
       <c r="A41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
+        <v>567</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F41" t="s">
+        <v>536</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>909</v>
-      </c>
-      <c r="F41" t="s">
-        <v>567</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J41" t="s">
-        <v>536</v>
-      </c>
-      <c r="K41" s="2">
-        <v>4</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>156</v>
@@ -5649,41 +5652,41 @@
       <c r="A42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
+        <v>564</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F42" t="s">
+        <v>539</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="F42" t="s">
-        <v>564</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J42" t="s">
-        <v>539</v>
-      </c>
-      <c r="K42" s="1">
-        <v>5</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>160</v>
@@ -5693,41 +5696,41 @@
       <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
+        <v>564</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F43" t="s">
+        <v>530</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>907</v>
-      </c>
-      <c r="F43" t="s">
-        <v>564</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J43" t="s">
-        <v>530</v>
-      </c>
-      <c r="K43" s="2">
-        <v>4</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>164</v>
@@ -5737,41 +5740,41 @@
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
+        <v>562</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F44" t="s">
+        <v>547</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="F44" t="s">
-        <v>562</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J44" t="s">
-        <v>547</v>
-      </c>
-      <c r="K44" s="2">
-        <v>4</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>168</v>
@@ -5781,41 +5784,41 @@
       <c r="A45" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
+        <v>566</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F45" t="s">
+        <v>546</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>905</v>
-      </c>
-      <c r="F45" t="s">
-        <v>566</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J45" t="s">
-        <v>546</v>
-      </c>
-      <c r="K45" s="1">
-        <v>5</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>172</v>
@@ -5825,41 +5828,41 @@
       <c r="A46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
+        <v>567</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F46" t="s">
+        <v>533</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="F46" t="s">
-        <v>567</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J46" t="s">
-        <v>533</v>
-      </c>
-      <c r="K46" s="2">
-        <v>5</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>176</v>
@@ -5869,41 +5872,41 @@
       <c r="A47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
+        <v>570</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F47" t="s">
+        <v>548</v>
+      </c>
+      <c r="G47" s="2">
+        <v>3</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="F47" t="s">
-        <v>570</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J47" t="s">
-        <v>548</v>
-      </c>
-      <c r="K47" s="2">
-        <v>3</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>180</v>
@@ -5913,41 +5916,41 @@
       <c r="A48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
+        <v>564</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F48" t="s">
+        <v>547</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="F48" t="s">
-        <v>564</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J48" t="s">
-        <v>547</v>
-      </c>
-      <c r="K48" s="1">
-        <v>4</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>184</v>
@@ -5957,36 +5960,36 @@
       <c r="A49" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C49"/>
-      <c r="D49" s="3" t="s">
+      <c r="B49" t="s">
+        <v>571</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F49" t="s">
+        <v>549</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="F49" t="s">
-        <v>571</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J49" t="s">
-        <v>549</v>
-      </c>
-      <c r="K49" s="2">
-        <v>2</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>188</v>
@@ -5996,41 +5999,41 @@
       <c r="A50" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
+        <v>566</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F50" t="s">
+        <v>548</v>
+      </c>
+      <c r="G50" s="2">
+        <v>5</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="F50" t="s">
-        <v>566</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J50" t="s">
-        <v>548</v>
-      </c>
-      <c r="K50" s="2">
-        <v>5</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>192</v>
@@ -6040,41 +6043,41 @@
       <c r="A51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
+        <v>564</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F51" t="s">
+        <v>550</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="F51" t="s">
-        <v>564</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J51" t="s">
-        <v>550</v>
-      </c>
-      <c r="K51" s="1">
-        <v>5</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>196</v>
@@ -6084,41 +6087,41 @@
       <c r="A52" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
+        <v>562</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F52" t="s">
+        <v>534</v>
+      </c>
+      <c r="G52" s="2">
+        <v>4</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="F52" t="s">
-        <v>562</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J52" t="s">
-        <v>534</v>
-      </c>
-      <c r="K52" s="2">
-        <v>4</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>200</v>
@@ -6128,41 +6131,41 @@
       <c r="A53" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
+        <v>562</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F53" t="s">
+        <v>551</v>
+      </c>
+      <c r="G53" s="2">
+        <v>4</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="F53" t="s">
-        <v>562</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J53" t="s">
-        <v>551</v>
-      </c>
-      <c r="K53" s="2">
-        <v>4</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>204</v>
@@ -6172,41 +6175,41 @@
       <c r="A54" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
+        <v>570</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F54" t="s">
+        <v>549</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="F54" t="s">
-        <v>570</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J54" t="s">
-        <v>549</v>
-      </c>
-      <c r="K54" s="1">
-        <v>3</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>208</v>
@@ -6216,41 +6219,41 @@
       <c r="A55" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F55" t="s">
+        <v>519</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="F55" t="s">
-        <v>565</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J55" t="s">
-        <v>519</v>
-      </c>
-      <c r="K55" s="2">
-        <v>5</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>212</v>
@@ -6260,41 +6263,41 @@
       <c r="A56" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
+        <v>565</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F56" t="s">
+        <v>522</v>
+      </c>
+      <c r="G56" s="2">
+        <v>4</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="M56" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="F56" t="s">
-        <v>565</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J56" t="s">
-        <v>522</v>
-      </c>
-      <c r="K56" s="2">
-        <v>4</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>216</v>
@@ -6304,41 +6307,41 @@
       <c r="A57" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
+        <v>563</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F57" t="s">
+        <v>552</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="F57" t="s">
-        <v>563</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J57" t="s">
-        <v>552</v>
-      </c>
-      <c r="K57" s="1">
-        <v>4</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>220</v>
@@ -6348,41 +6351,41 @@
       <c r="A58" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
+        <v>563</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F58" t="s">
+        <v>553</v>
+      </c>
+      <c r="G58" s="2">
+        <v>4</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="F58" t="s">
-        <v>563</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J58" t="s">
-        <v>553</v>
-      </c>
-      <c r="K58" s="2">
-        <v>4</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>224</v>
@@ -6392,41 +6395,41 @@
       <c r="A59" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
+        <v>567</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F59" t="s">
+        <v>545</v>
+      </c>
+      <c r="G59" s="2">
+        <v>4</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="F59" t="s">
-        <v>567</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J59" t="s">
-        <v>545</v>
-      </c>
-      <c r="K59" s="2">
-        <v>4</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>228</v>
@@ -6436,41 +6439,41 @@
       <c r="A60" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
+        <v>564</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F60" t="s">
+        <v>544</v>
+      </c>
+      <c r="G60" s="1">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="L60" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="M60" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="F60" t="s">
-        <v>564</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J60" t="s">
-        <v>544</v>
-      </c>
-      <c r="K60" s="1">
-        <v>3</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>232</v>
@@ -6480,41 +6483,41 @@
       <c r="A61" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
+        <v>564</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F61" t="s">
+        <v>527</v>
+      </c>
+      <c r="G61" s="2">
+        <v>3</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="F61" t="s">
-        <v>564</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J61" t="s">
-        <v>527</v>
-      </c>
-      <c r="K61" s="2">
-        <v>3</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>236</v>
@@ -6524,41 +6527,41 @@
       <c r="A62" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
+        <v>567</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F62" t="s">
+        <v>554</v>
+      </c>
+      <c r="G62" s="2">
+        <v>4</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="F62" t="s">
-        <v>567</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J62" t="s">
-        <v>554</v>
-      </c>
-      <c r="K62" s="2">
-        <v>4</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>240</v>
@@ -6568,41 +6571,41 @@
       <c r="A63" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
+        <v>564</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F63" t="s">
+        <v>530</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="L63" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="F63" t="s">
-        <v>564</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J63" t="s">
-        <v>530</v>
-      </c>
-      <c r="K63" s="1">
-        <v>3</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>244</v>
@@ -6612,41 +6615,41 @@
       <c r="A64" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
+        <v>567</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F64" t="s">
+        <v>555</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="M64" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="F64" t="s">
-        <v>567</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J64" t="s">
-        <v>555</v>
-      </c>
-      <c r="K64" s="2">
-        <v>4</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>248</v>
@@ -6656,41 +6659,41 @@
       <c r="A65" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
+        <v>567</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F65" t="s">
+        <v>533</v>
+      </c>
+      <c r="G65" s="2">
+        <v>4</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="L65" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="F65" t="s">
-        <v>567</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J65" t="s">
-        <v>533</v>
-      </c>
-      <c r="K65" s="2">
-        <v>4</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>252</v>
@@ -6700,41 +6703,41 @@
       <c r="A66" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
+        <v>562</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F66" t="s">
+        <v>528</v>
+      </c>
+      <c r="G66" s="1">
+        <v>3</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="F66" t="s">
-        <v>562</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J66" t="s">
-        <v>528</v>
-      </c>
-      <c r="K66" s="1">
-        <v>3</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>255</v>
@@ -6744,41 +6747,41 @@
       <c r="A67" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
+        <v>570</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F67" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67" s="2">
+        <v>3</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="L67" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="F67" t="s">
-        <v>570</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J67" t="s">
-        <v>520</v>
-      </c>
-      <c r="K67" s="2">
-        <v>3</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>259</v>
@@ -6788,41 +6791,41 @@
       <c r="A68" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
+        <v>570</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="M68" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="F68" t="s">
-        <v>570</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J68" t="s">
-        <v>520</v>
-      </c>
-      <c r="K68" s="2">
-        <v>3</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>263</v>
@@ -6832,41 +6835,41 @@
       <c r="A69" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
+        <v>567</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F69" t="s">
+        <v>543</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C69" t="s">
+      <c r="K69" t="s">
         <v>851</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="F69" t="s">
-        <v>567</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J69" t="s">
-        <v>543</v>
-      </c>
-      <c r="K69" s="1">
-        <v>4</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>267</v>
@@ -6876,41 +6879,41 @@
       <c r="A70" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
+        <v>564</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G70" s="2">
+        <v>4</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="F70" t="s">
-        <v>564</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J70" t="s">
-        <v>556</v>
-      </c>
-      <c r="K70" s="2">
-        <v>4</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>271</v>
@@ -6920,40 +6923,40 @@
       <c r="A71" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
+        <v>572</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F71" t="s">
+        <v>555</v>
+      </c>
+      <c r="G71" s="2">
+        <v>5</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="E71"/>
-      <c r="F71" t="s">
-        <v>572</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J71" t="s">
-        <v>555</v>
-      </c>
-      <c r="K71" s="2">
-        <v>5</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>274</v>
-      </c>
+      <c r="M71"/>
       <c r="N71" s="2" t="s">
         <v>311</v>
       </c>
@@ -6962,41 +6965,41 @@
       <c r="A72" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
+        <v>562</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F72" t="s">
+        <v>526</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="M72" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="F72" t="s">
-        <v>562</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J72" t="s">
-        <v>526</v>
-      </c>
-      <c r="K72" s="1">
-        <v>4</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>275</v>
@@ -7006,41 +7009,41 @@
       <c r="A73" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
+        <v>573</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F73" t="s">
+        <v>549</v>
+      </c>
+      <c r="G73" s="2">
+        <v>2</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C73" t="s">
+      <c r="K73" t="s">
         <v>852</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="L73" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="M73" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="F73" t="s">
-        <v>573</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J73" t="s">
-        <v>549</v>
-      </c>
-      <c r="K73" s="2">
-        <v>2</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>279</v>
@@ -7050,41 +7053,41 @@
       <c r="A74" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
+        <v>573</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F74" t="s">
+        <v>549</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C74" t="s">
+      <c r="K74" t="s">
         <v>852</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="L74" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="F74" t="s">
-        <v>573</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J74" t="s">
-        <v>549</v>
-      </c>
-      <c r="K74" s="2">
-        <v>2</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>283</v>
@@ -7094,41 +7097,41 @@
       <c r="A75" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
+        <v>564</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F75" t="s">
+        <v>554</v>
+      </c>
+      <c r="G75" s="1">
+        <v>5</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="F75" t="s">
-        <v>564</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J75" t="s">
-        <v>554</v>
-      </c>
-      <c r="K75" s="1">
-        <v>5</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>287</v>
@@ -7138,41 +7141,41 @@
       <c r="A76" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
+        <v>564</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F76" t="s">
+        <v>557</v>
+      </c>
+      <c r="G76" s="2">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="L76" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="M76" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="F76" t="s">
-        <v>564</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J76" t="s">
-        <v>557</v>
-      </c>
-      <c r="K76" s="2">
-        <v>5</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>319</v>
@@ -7182,41 +7185,41 @@
       <c r="A77" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
+        <v>567</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F77" t="s">
+        <v>542</v>
+      </c>
+      <c r="G77" s="2">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="L77" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="M77" s="3" t="s">
         <v>876</v>
-      </c>
-      <c r="F77" t="s">
-        <v>567</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J77" t="s">
-        <v>542</v>
-      </c>
-      <c r="K77" s="2">
-        <v>3</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>295</v>
@@ -7226,41 +7229,41 @@
       <c r="A78" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
+        <v>562</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F78" t="s">
+        <v>540</v>
+      </c>
+      <c r="G78" s="1">
+        <v>3</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="L78" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="M78" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="F78" t="s">
-        <v>562</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J78" t="s">
-        <v>540</v>
-      </c>
-      <c r="K78" s="1">
-        <v>3</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>291</v>
@@ -7270,41 +7273,41 @@
       <c r="A79" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
+        <v>564</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F79" t="s">
+        <v>552</v>
+      </c>
+      <c r="G79" s="2">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="L79" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="M79" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="F79" t="s">
-        <v>564</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J79" t="s">
-        <v>552</v>
-      </c>
-      <c r="K79" s="2">
-        <v>3</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>307</v>
@@ -7314,41 +7317,41 @@
       <c r="A80" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
+        <v>566</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F80" t="s">
+        <v>523</v>
+      </c>
+      <c r="G80" s="2">
+        <v>3</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="L80" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="M80" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="F80" t="s">
-        <v>566</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J80" t="s">
-        <v>523</v>
-      </c>
-      <c r="K80" s="2">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>299</v>
@@ -7358,41 +7361,41 @@
       <c r="A81" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
+        <v>564</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F81" t="s">
+        <v>537</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="L81" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="M81" s="3" t="s">
         <v>872</v>
-      </c>
-      <c r="F81" t="s">
-        <v>564</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J81" t="s">
-        <v>537</v>
-      </c>
-      <c r="K81" s="1">
-        <v>3</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>303</v>
@@ -7402,41 +7405,41 @@
       <c r="A82" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
+        <v>564</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F82" t="s">
+        <v>525</v>
+      </c>
+      <c r="G82" s="2">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="M82" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="F82" t="s">
-        <v>564</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J82" t="s">
-        <v>525</v>
-      </c>
-      <c r="K82" s="2">
-        <v>4</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>315</v>
@@ -7446,41 +7449,41 @@
       <c r="A83" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
+        <v>565</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F83" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" s="2">
+        <v>3</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>870</v>
-      </c>
-      <c r="F83" t="s">
-        <v>565</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J83" t="s">
-        <v>558</v>
-      </c>
-      <c r="K83" s="2">
-        <v>3</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>323</v>
@@ -7490,41 +7493,41 @@
       <c r="A84" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
+        <v>564</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F84" t="s">
+        <v>557</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J84" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="L84" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="M84" s="3" t="s">
         <v>869</v>
-      </c>
-      <c r="F84" t="s">
-        <v>564</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J84" t="s">
-        <v>557</v>
-      </c>
-      <c r="K84" s="1">
-        <v>4</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>327</v>
@@ -7534,41 +7537,41 @@
       <c r="A85" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
+        <v>567</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F85" t="s">
+        <v>531</v>
+      </c>
+      <c r="G85" s="2">
+        <v>3</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J85" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="L85" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="M85" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="F85" t="s">
-        <v>567</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J85" t="s">
-        <v>531</v>
-      </c>
-      <c r="K85" s="2">
-        <v>3</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>331</v>
@@ -7578,41 +7581,41 @@
       <c r="A86" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
+        <v>562</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F86" t="s">
+        <v>550</v>
+      </c>
+      <c r="G86" s="2">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="C86" t="s">
+      <c r="K86" t="s">
         <v>850</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="L86" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="F86" t="s">
-        <v>562</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J86" t="s">
-        <v>550</v>
-      </c>
-      <c r="K86" s="2">
-        <v>3</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>335</v>
@@ -7622,41 +7625,41 @@
       <c r="A87" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
+        <v>562</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F87" t="s">
+        <v>558</v>
+      </c>
+      <c r="G87" s="1">
+        <v>5</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="L87" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="M87" s="3" t="s">
         <v>866</v>
-      </c>
-      <c r="F87" t="s">
-        <v>562</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J87" t="s">
-        <v>558</v>
-      </c>
-      <c r="K87" s="1">
-        <v>5</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>339</v>
@@ -7666,41 +7669,41 @@
       <c r="A88" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F88" t="s">
+        <v>558</v>
+      </c>
+      <c r="G88" s="2">
+        <v>4</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J88" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="L88" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="M88" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="F88" t="s">
-        <v>565</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J88" t="s">
-        <v>558</v>
-      </c>
-      <c r="K88" s="2">
-        <v>4</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>343</v>
@@ -7710,41 +7713,41 @@
       <c r="A89" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" t="s">
+        <v>564</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F89" t="s">
+        <v>555</v>
+      </c>
+      <c r="G89" s="2">
+        <v>5</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="M89" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="F89" t="s">
-        <v>564</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J89" t="s">
-        <v>555</v>
-      </c>
-      <c r="K89" s="2">
-        <v>5</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>347</v>
@@ -7754,41 +7757,41 @@
       <c r="A90" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" t="s">
+        <v>564</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F90" t="s">
+        <v>541</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="L90" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="M90" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="F90" t="s">
-        <v>564</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J90" t="s">
-        <v>541</v>
-      </c>
-      <c r="K90" s="1">
-        <v>4</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>351</v>
@@ -7798,41 +7801,41 @@
       <c r="A91" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="s">
+        <v>567</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F91" t="s">
+        <v>522</v>
+      </c>
+      <c r="G91" s="2">
+        <v>3</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J91" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="F91" t="s">
-        <v>567</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J91" t="s">
-        <v>522</v>
-      </c>
-      <c r="K91" s="2">
-        <v>3</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>355</v>
@@ -7842,41 +7845,41 @@
       <c r="A92" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="s">
+        <v>574</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F92" t="s">
+        <v>553</v>
+      </c>
+      <c r="G92" s="2">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="L92" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="M92" s="3" t="s">
         <v>861</v>
-      </c>
-      <c r="F92" t="s">
-        <v>574</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J92" t="s">
-        <v>553</v>
-      </c>
-      <c r="K92" s="2">
-        <v>5</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>359</v>
@@ -7886,41 +7889,41 @@
       <c r="A93" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
+        <v>563</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F93" t="s">
+        <v>543</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J93" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="M93" s="3" t="s">
         <v>860</v>
-      </c>
-      <c r="F93" t="s">
-        <v>563</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J93" t="s">
-        <v>543</v>
-      </c>
-      <c r="K93" s="1">
-        <v>4</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>363</v>
@@ -7930,41 +7933,41 @@
       <c r="A94" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
+        <v>563</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F94" t="s">
+        <v>550</v>
+      </c>
+      <c r="G94" s="2">
+        <v>3</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="F94" t="s">
-        <v>563</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J94" t="s">
-        <v>550</v>
-      </c>
-      <c r="K94" s="2">
-        <v>3</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>367</v>
@@ -7974,41 +7977,41 @@
       <c r="A95" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
+        <v>563</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F95" t="s">
+        <v>551</v>
+      </c>
+      <c r="G95" s="2">
+        <v>3</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J95" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="L95" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="M95" s="3" t="s">
         <v>858</v>
-      </c>
-      <c r="F95" t="s">
-        <v>563</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="J95" t="s">
-        <v>551</v>
-      </c>
-      <c r="K95" s="2">
-        <v>3</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>371</v>
@@ -8018,41 +8021,41 @@
       <c r="A96" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
+        <v>566</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F96" t="s">
+        <v>532</v>
+      </c>
+      <c r="G96" s="1">
+        <v>4</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J96" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="L96" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="M96" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="F96" t="s">
-        <v>566</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J96" t="s">
-        <v>532</v>
-      </c>
-      <c r="K96" s="1">
-        <v>4</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>375</v>
@@ -8062,41 +8065,41 @@
       <c r="A97" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
+        <v>566</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F97" t="s">
+        <v>555</v>
+      </c>
+      <c r="G97" s="2">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="L97" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="M97" s="3" t="s">
         <v>856</v>
-      </c>
-      <c r="F97" t="s">
-        <v>566</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J97" t="s">
-        <v>555</v>
-      </c>
-      <c r="K97" s="2">
-        <v>4</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>379</v>
@@ -8106,418 +8109,418 @@
       <c r="A98" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F98" t="s">
+        <v>555</v>
+      </c>
+      <c r="G98" s="2">
+        <v>3</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="L98" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="E98"/>
-      <c r="G98" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="J98" t="s">
-        <v>555</v>
-      </c>
-      <c r="K98" s="2">
-        <v>3</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="M98"/>
       <c r="N98" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E99"/>
+      <c r="M99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E100"/>
+      <c r="M100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E101"/>
+      <c r="M101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E102"/>
+      <c r="M102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E103"/>
+      <c r="M103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E104"/>
+      <c r="M104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E105"/>
+      <c r="M105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E106"/>
+      <c r="M106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E107"/>
+      <c r="M107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E108"/>
+      <c r="M108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E109"/>
+      <c r="M109"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E110"/>
+      <c r="M110"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E111"/>
+      <c r="M111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126"/>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127"/>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141"/>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142"/>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147"/>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148"/>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149"/>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150"/>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151"/>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152"/>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153"/>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154"/>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155"/>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156"/>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157"/>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158"/>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159"/>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160"/>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161"/>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162"/>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163"/>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164"/>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165"/>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166"/>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167"/>
-    </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168"/>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169"/>
-    </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170"/>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171"/>
-    </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172"/>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173"/>
-    </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174"/>
-    </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175"/>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183"/>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184"/>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185"/>
-    </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186"/>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187"/>
-    </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188"/>
-    </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189"/>
-    </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190"/>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191"/>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193"/>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194"/>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195"/>
-    </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196"/>
-    </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197"/>
-    </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198"/>
-    </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199"/>
-    </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200"/>
-    </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201"/>
-    </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202"/>
-    </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203"/>
-    </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204"/>
-    </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205"/>
-    </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206"/>
-    </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207"/>
-    </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208"/>
-    </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209"/>
-    </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210"/>
-    </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211"/>
-    </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212"/>
-    </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213"/>
-    </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214"/>
-    </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215"/>
-    </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216"/>
-    </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217"/>
-    </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218"/>
-    </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219"/>
-    </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220"/>
-    </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221"/>
-    </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222"/>
-    </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223"/>
-    </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224"/>
+      <c r="M112"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M113"/>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M114"/>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M115"/>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M116"/>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M117"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M118"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M119"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M120"/>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M121"/>
+    </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M122"/>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M123"/>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M124"/>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M125"/>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M126"/>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M127"/>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M128"/>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M129"/>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M130"/>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M131"/>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M132"/>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M133"/>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M134"/>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M135"/>
+    </row>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M136"/>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M137"/>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M138"/>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M139"/>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M140"/>
+    </row>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M141"/>
+    </row>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M142"/>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M143"/>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M144"/>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M145"/>
+    </row>
+    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M146"/>
+    </row>
+    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M147"/>
+    </row>
+    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M148"/>
+    </row>
+    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M149"/>
+    </row>
+    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M150"/>
+    </row>
+    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M151"/>
+    </row>
+    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M152"/>
+    </row>
+    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M153"/>
+    </row>
+    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M154"/>
+    </row>
+    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M155"/>
+    </row>
+    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M156"/>
+    </row>
+    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M157"/>
+    </row>
+    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M158"/>
+    </row>
+    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M159"/>
+    </row>
+    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M160"/>
+    </row>
+    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M161"/>
+    </row>
+    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M162"/>
+    </row>
+    <row r="163" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M163"/>
+    </row>
+    <row r="164" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M164"/>
+    </row>
+    <row r="165" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M165"/>
+    </row>
+    <row r="166" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M166"/>
+    </row>
+    <row r="167" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M167"/>
+    </row>
+    <row r="168" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M168"/>
+    </row>
+    <row r="169" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M169"/>
+    </row>
+    <row r="170" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M170"/>
+    </row>
+    <row r="171" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M171"/>
+    </row>
+    <row r="172" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M172"/>
+    </row>
+    <row r="173" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M173"/>
+    </row>
+    <row r="174" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M174"/>
+    </row>
+    <row r="175" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M175"/>
+    </row>
+    <row r="176" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M176"/>
+    </row>
+    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M177"/>
+    </row>
+    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M178"/>
+    </row>
+    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M179"/>
+    </row>
+    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M180"/>
+    </row>
+    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M181"/>
+    </row>
+    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M182"/>
+    </row>
+    <row r="183" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M183"/>
+    </row>
+    <row r="184" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M184"/>
+    </row>
+    <row r="185" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M185"/>
+    </row>
+    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M186"/>
+    </row>
+    <row r="187" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M187"/>
+    </row>
+    <row r="188" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M188"/>
+    </row>
+    <row r="189" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M189"/>
+    </row>
+    <row r="190" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M190"/>
+    </row>
+    <row r="191" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M191"/>
+    </row>
+    <row r="192" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M192"/>
+    </row>
+    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M193"/>
+    </row>
+    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M194"/>
+    </row>
+    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M195"/>
+    </row>
+    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M196"/>
+    </row>
+    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M197"/>
+    </row>
+    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M198"/>
+    </row>
+    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M199"/>
+    </row>
+    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M200"/>
+    </row>
+    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M201"/>
+    </row>
+    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M202"/>
+    </row>
+    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M203"/>
+    </row>
+    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M204"/>
+    </row>
+    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M205"/>
+    </row>
+    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M206"/>
+    </row>
+    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M207"/>
+    </row>
+    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M208"/>
+    </row>
+    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M209"/>
+    </row>
+    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M210"/>
+    </row>
+    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M211"/>
+    </row>
+    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M212"/>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M213"/>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M214"/>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M215"/>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M216"/>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M217"/>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M218"/>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M219"/>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M220"/>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M221"/>
+    </row>
+    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M222"/>
+    </row>
+    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M223"/>
+    </row>
+    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M224"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Integration List.xlsx
+++ b/Integration List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Integration_Hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45432BCF-DC09-4D0E-96BA-3A975BA63198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1475BF8D-7912-4215-9A3E-3D75DEADA351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{199BEFDA-6D70-4001-AC3C-82D1565D7EFD}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="950">
   <si>
     <t>Integration Name</t>
   </si>
@@ -2867,6 +2867,9 @@
   </si>
   <si>
     <t>https://documents.bmc.com/supportu/9.0.22/en-US/Documentation/AWS_Step_Functions.htm</t>
+  </si>
+  <si>
+    <t>https://documents.bmc.com/supportu/9.0.22/en-US/Documentation/Integrations_Main.htm</t>
   </si>
 </sst>
 </file>
@@ -3478,7 +3481,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E8FA005-27E5-472A-A051-61AF55866230}" name="Table1" displayName="Table1" ref="A1:N1048575" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N1048575" xr:uid="{4E8FA005-27E5-472A-A051-61AF55866230}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N153">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N224">
     <sortCondition ref="A1:A1048575"/>
   </sortState>
   <tableColumns count="14">
@@ -3491,11 +3494,11 @@
     <tableColumn id="12" xr3:uid="{72E937D1-1E81-48AF-9D5B-5296FD29085D}" name="Popularity" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D93936C9-0BF2-4880-AC31-E950E3533A2A}" name="Provision Integration Linux" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{85AF1488-40E5-4028-A90A-1DEBE758E866}" name="Provision Integration Windows" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{71BAAA46-203B-4F13-88C2-8B0A20CCD608}" name="Service Website" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{68BE37D1-24AA-4951-B61B-A66DE0F8E323}" name="API Documentation" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{7A555FD3-436A-44A0-995F-B8AE4C683CFB}" name="Github Repository" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{04342CFE-80D7-4551-A592-DBC1B2EC691E}" name="Control-M Documentation" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{6F826D3E-8B6A-44DC-B7BD-BAD899C41737}" name="Remove Integration" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{71BAAA46-203B-4F13-88C2-8B0A20CCD608}" name="Service Website" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{68BE37D1-24AA-4951-B61B-A66DE0F8E323}" name="API Documentation" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{7A555FD3-436A-44A0-995F-B8AE4C683CFB}" name="Github Repository" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{04342CFE-80D7-4551-A592-DBC1B2EC691E}" name="Control-M Documentation" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6F826D3E-8B6A-44DC-B7BD-BAD899C41737}" name="Remove Integration" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3820,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF2D89-2A74-4C7B-886D-75907E86C7AA}">
   <dimension ref="A1:N224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,7 +3839,7 @@
     <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="39.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41" style="1" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="41.28515625" customWidth="1"/>
     <col min="16" max="16" width="31.7109375" customWidth="1"/>
@@ -7538,7 +7541,7 @@
         <v>328</v>
       </c>
       <c r="B85" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>482</v>
@@ -7582,7 +7585,7 @@
         <v>332</v>
       </c>
       <c r="B86" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>490</v>
@@ -7670,7 +7673,7 @@
         <v>340</v>
       </c>
       <c r="B88" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>481</v>
@@ -7802,7 +7805,7 @@
         <v>352</v>
       </c>
       <c r="B91" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>476</v>
@@ -8109,6 +8112,9 @@
       <c r="A98" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="B98" t="s">
+        <v>566</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>491</v>
       </c>
@@ -8139,7 +8145,9 @@
       <c r="L98" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="M98"/>
+      <c r="M98" t="s">
+        <v>949</v>
+      </c>
       <c r="N98" s="1" t="s">
         <v>383</v>
       </c>

--- a/Integration List.xlsx
+++ b/Integration List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Integration_Hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1475BF8D-7912-4215-9A3E-3D75DEADA351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E15BDA-E7C6-434E-BB0B-41A2BD611AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{199BEFDA-6D70-4001-AC3C-82D1565D7EFD}"/>
   </bookViews>
@@ -3359,7 +3359,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3371,6 +3371,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3482,7 +3492,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E8FA005-27E5-472A-A051-61AF55866230}" name="Table1" displayName="Table1" ref="A1:N1048575" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:N1048575" xr:uid="{4E8FA005-27E5-472A-A051-61AF55866230}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N224">
-    <sortCondition ref="A1:A1048575"/>
+    <sortCondition ref="C1:C1048575"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D9CD4279-3D16-4470-8A60-FF492F9935B7}" name="Integration Name" dataDxfId="13"/>
@@ -3823,21 +3833,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF2D89-2A74-4C7B-886D-75907E86C7AA}">
   <dimension ref="A1:N224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="74.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="39.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="41" style="1" customWidth="1"/>
     <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
@@ -3891,1417 +3902,1417 @@
         <v>517</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="C5" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F3" t="s">
-        <v>519</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F4" t="s">
-        <v>520</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F5" t="s">
-        <v>521</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F6" t="s">
-        <v>522</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F8" t="s">
-        <v>524</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>565</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F9" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F10" t="s">
-        <v>526</v>
-      </c>
-      <c r="G10" s="2">
+        <v>534</v>
+      </c>
+      <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>587</v>
+        <v>123</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>676</v>
+        <v>846</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>588</v>
+        <v>330</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>658</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>677</v>
+        <v>845</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>749</v>
+        <v>823</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>927</v>
+        <v>868</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>482</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F12" t="s">
-        <v>528</v>
-      </c>
-      <c r="G12" s="1">
+        <v>550</v>
+      </c>
+      <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>589</v>
+        <v>366</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>678</v>
+        <v>736</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>750</v>
+        <v>832</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>928</v>
+        <v>859</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>508</v>
       </c>
       <c r="F13" t="s">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>679</v>
+        <v>737</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>751</v>
+        <v>833</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>929</v>
+        <v>858</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>45</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F14" t="s">
-        <v>530</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
+        <v>538</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
+      <c r="A15" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B15" t="s">
         <v>564</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>395</v>
+      <c r="C15" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F15" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>52</v>
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>753</v>
+        <v>813</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>53</v>
+        <v>874</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
+      <c r="A16" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B16" t="s">
+        <v>564</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F16" t="s">
+        <v>557</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" t="s">
         <v>565</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F16" t="s">
-        <v>531</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>564</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>397</v>
+      <c r="C17" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F17" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="G17" s="2">
         <v>3</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>594</v>
+      <c r="H17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>656</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>683</v>
+        <v>843</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>755</v>
+        <v>821</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>61</v>
+        <v>870</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
+      <c r="A18" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="B18" t="s">
-        <v>565</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>398</v>
+        <v>564</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F18" t="s">
+        <v>555</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>564</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F19" t="s">
+        <v>520</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F18" t="s">
-        <v>518</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F20" t="s">
+        <v>544</v>
+      </c>
+      <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>567</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F19" t="s">
-        <v>533</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>563</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F20" t="s">
-        <v>534</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>597</v>
+      <c r="H20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>73</v>
+        <v>912</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>74</v>
+      <c r="A21" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>562</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>401</v>
+        <v>564</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F21" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="G21" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>598</v>
+      <c r="H21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>625</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>77</v>
+        <v>902</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>78</v>
+      <c r="A22" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B22" t="s">
-        <v>568</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>564</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F22" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>760</v>
+        <v>808</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>81</v>
+        <v>882</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>508</v>
       </c>
       <c r="F23" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G23" s="2">
         <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>483</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F24" t="s">
+        <v>533</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F25" t="s">
         <v>537</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>564</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F25" t="s">
-        <v>530</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>498</v>
+        <v>413</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>508</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>603</v>
+        <v>127</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>692</v>
+        <v>847</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>499</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>97</v>
+      <c r="A27" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>563</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>406</v>
+        <v>567</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="F27" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G27" s="1">
-        <v>3</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>604</v>
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>100</v>
+        <v>911</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F28" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="G28" s="2">
         <v>5</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>605</v>
+        <v>175</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>623</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>105</v>
+      <c r="A29" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>564</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>408</v>
+        <v>570</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F29" t="s">
-        <v>539</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>107</v>
+        <v>549</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>695</v>
+        <v>854</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>767</v>
+        <v>792</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>108</v>
+        <v>885</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>109</v>
+      <c r="A30" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>563</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>409</v>
+        <v>567</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>507</v>
       </c>
       <c r="F30" t="s">
-        <v>540</v>
-      </c>
-      <c r="G30" s="1">
+        <v>555</v>
+      </c>
+      <c r="G30" s="2">
         <v>4</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>111</v>
+      <c r="H30" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>112</v>
+        <v>895</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>113</v>
+      <c r="A31" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>563</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>410</v>
+        <v>567</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F31" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>115</v>
+      <c r="H31" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>116</v>
+        <v>896</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>117</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F32" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>609</v>
+        <v>310</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>653</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>698</v>
+        <v>840</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>770</v>
+        <v>818</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>948</v>
+        <v>879</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>121</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F33" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>122</v>
+        <v>313</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>610</v>
+        <v>654</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>771</v>
+        <v>819</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>917</v>
+        <v>872</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s">
         <v>566</v>
@@ -5310,565 +5321,563 @@
         <v>483</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F34" t="s">
-        <v>541</v>
-      </c>
-      <c r="G34" s="2">
-        <v>3</v>
+        <v>532</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>611</v>
+        <v>374</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>772</v>
+        <v>834</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>916</v>
+        <v>857</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>128</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>480</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F35" t="s">
-        <v>542</v>
-      </c>
-      <c r="G35" s="2">
-        <v>4</v>
+        <v>525</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>612</v>
+        <v>28</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>848</v>
+        <v>675</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F36" t="s">
-        <v>535</v>
-      </c>
-      <c r="G36" s="1">
-        <v>5</v>
+        <v>534</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>613</v>
+        <v>72</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
         <v>566</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>700</v>
+        <v>848</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>141</v>
+      <c r="A38" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>562</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>417</v>
+        <v>565</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F38" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="G38" s="2">
-        <v>5</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>615</v>
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>632</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>144</v>
+        <v>887</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F39" t="s">
-        <v>545</v>
-      </c>
-      <c r="G39" s="1">
+        <v>555</v>
+      </c>
+      <c r="G39" s="2">
         <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>616</v>
+        <v>274</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>646</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>911</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="M39"/>
       <c r="N39" s="2" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" t="s">
-        <v>564</v>
+        <v>15</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>565</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E40" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F40" t="s">
-        <v>546</v>
+      <c r="F40" s="9" t="s">
+        <v>522</v>
       </c>
       <c r="G40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>910</v>
+        <v>17</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>922</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F41" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="G41" s="2">
         <v>4</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>618</v>
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>579</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>779</v>
+        <v>740</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>157</v>
+      <c r="A42" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>564</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>420</v>
+        <v>563</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F42" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="G42" s="1">
-        <v>5</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>619</v>
+        <v>3</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>580</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>780</v>
+        <v>741</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>160</v>
+        <v>919</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>161</v>
+      <c r="A43" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>564</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>421</v>
+      <c r="C43" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G43" s="2">
-        <v>4</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>620</v>
+        <v>3</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>587</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>705</v>
+        <v>676</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>781</v>
+        <v>748</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>164</v>
+        <v>926</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>165</v>
+      <c r="A44" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>562</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>422</v>
+        <v>568</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F44" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="G44" s="2">
-        <v>4</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>621</v>
+        <v>5</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>599</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>168</v>
+        <v>938</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>508</v>
       </c>
       <c r="F45" t="s">
-        <v>546</v>
-      </c>
-      <c r="G45" s="1">
-        <v>5</v>
+        <v>536</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>622</v>
+        <v>84</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>600</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F46" t="s">
-        <v>533</v>
-      </c>
-      <c r="G46" s="2">
+        <v>535</v>
+      </c>
+      <c r="G46" s="1">
         <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -5916,2152 +5925,2154 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>181</v>
+      <c r="A48" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>564</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>426</v>
+        <v>562</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F48" t="s">
-        <v>547</v>
-      </c>
-      <c r="G48" s="1">
+        <v>551</v>
+      </c>
+      <c r="G48" s="2">
         <v>4</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>625</v>
+      <c r="H48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>184</v>
+        <v>884</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>185</v>
+      <c r="A49" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B49" t="s">
-        <v>571</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>427</v>
+        <v>563</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F49" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G49" s="2">
-        <v>2</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K49"/>
+        <v>4</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>718</v>
+      </c>
       <c r="L49" s="3" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>188</v>
+        <v>889</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F50" t="s">
-        <v>548</v>
-      </c>
-      <c r="G50" s="2">
-        <v>5</v>
+        <v>544</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>626</v>
+        <v>231</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>636</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>193</v>
+      <c r="A51" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B51" t="s">
         <v>564</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>429</v>
+      <c r="C51" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F51" t="s">
-        <v>550</v>
-      </c>
-      <c r="G51" s="1">
-        <v>5</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>627</v>
+        <v>527</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>637</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>196</v>
+        <v>892</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>444</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F52" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G52" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>628</v>
+        <v>258</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>643</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>713</v>
+        <v>853</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="B53" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>476</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F53" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="G53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>714</v>
+        <v>853</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="F54" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G54" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>854</v>
+        <v>644</v>
+      </c>
+      <c r="K54" t="s">
+        <v>851</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="B55" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F55" t="s">
-        <v>519</v>
-      </c>
-      <c r="G55" s="2">
-        <v>5</v>
+        <v>526</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F56" t="s">
-        <v>522</v>
-      </c>
-      <c r="G56" s="2">
-        <v>4</v>
+        <v>540</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>632</v>
+        <v>302</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>651</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>716</v>
+        <v>838</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F57" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G57" s="1">
         <v>4</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>633</v>
+        <v>350</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>795</v>
+        <v>828</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>221</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>476</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F58" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="G58" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>634</v>
+        <v>354</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>662</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>481</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F59" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="G59" s="2">
         <v>4</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>890</v>
+        <v>927</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
         <v>564</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F60" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G60" s="1">
         <v>3</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>230</v>
+        <v>51</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>720</v>
+        <v>681</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>798</v>
+        <v>753</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>232</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F61" t="s">
-        <v>527</v>
-      </c>
-      <c r="G61" s="2">
-        <v>3</v>
+        <v>518</v>
+      </c>
+      <c r="G61" s="1">
+        <v>5</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>799</v>
+        <v>756</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>481</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F62" t="s">
-        <v>554</v>
-      </c>
-      <c r="G62" s="2">
+        <v>524</v>
+      </c>
+      <c r="G62" s="1">
         <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>893</v>
+        <v>937</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>241</v>
+      <c r="A63" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>564</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>440</v>
+        <v>562</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F63" t="s">
-        <v>530</v>
-      </c>
-      <c r="G63" s="1">
-        <v>3</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>243</v>
+        <v>521</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>801</v>
+        <v>766</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>244</v>
+        <v>944</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F64" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G64" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>640</v>
+        <v>139</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F65" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="G65" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>641</v>
+        <v>151</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>617</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>725</v>
+        <v>855</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>252</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F66" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="G66" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>642</v>
+        <v>171</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F67" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="G67" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>643</v>
+        <v>191</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>626</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>853</v>
+        <v>711</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>445</v>
+        <v>197</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F68" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="G68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>643</v>
+        <v>199</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>628</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>853</v>
+        <v>713</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
+        <v>565</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F69" t="s">
+        <v>519</v>
+      </c>
+      <c r="G69" s="2">
+        <v>5</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" t="s">
         <v>567</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F69" t="s">
-        <v>543</v>
-      </c>
-      <c r="G69" s="1">
-        <v>4</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="K69" t="s">
-        <v>851</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B70" t="s">
-        <v>564</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>447</v>
+      <c r="C70" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F70" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="G70" s="2">
         <v>4</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>270</v>
+      <c r="H70" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>271</v>
+        <v>890</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="B71" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G71" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="M71"/>
+        <v>800</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>893</v>
+      </c>
       <c r="N71" s="2" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F72" t="s">
-        <v>526</v>
-      </c>
-      <c r="G72" s="1">
+        <v>542</v>
+      </c>
+      <c r="G72" s="2">
+        <v>3</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" t="s">
+        <v>562</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F73" t="s">
+        <v>558</v>
+      </c>
+      <c r="G73" s="1">
+        <v>5</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" t="s">
+        <v>562</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F74" t="s">
+        <v>558</v>
+      </c>
+      <c r="G74" s="2">
         <v>4</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B73" t="s">
-        <v>573</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F73" t="s">
-        <v>549</v>
-      </c>
-      <c r="G73" s="2">
-        <v>2</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="K73" t="s">
-        <v>852</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B74" t="s">
-        <v>573</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="H74" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" t="s">
+        <v>565</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F74" t="s">
-        <v>549</v>
-      </c>
-      <c r="G74" s="2">
-        <v>2</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="K74" t="s">
-        <v>852</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B75" t="s">
-        <v>564</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="F75" t="s">
-        <v>554</v>
-      </c>
-      <c r="G75" s="1">
-        <v>5</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>290</v>
+        <v>531</v>
+      </c>
+      <c r="G75" s="2">
+        <v>4</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>649</v>
+        <v>593</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>730</v>
+        <v>682</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>813</v>
+        <v>754</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>287</v>
+        <v>932</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F76" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="G76" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>730</v>
+        <v>334</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="K76" t="s">
+        <v>850</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>296</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F77" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G77" s="2">
         <v>3</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>297</v>
+        <v>59</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>837</v>
+        <v>683</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>815</v>
+        <v>755</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>876</v>
+        <v>933</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>300</v>
+      <c r="A78" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>562</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>452</v>
+        <v>564</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
-      </c>
-      <c r="G78" s="1">
-        <v>3</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>651</v>
+        <v>530</v>
+      </c>
+      <c r="G78" s="2">
+        <v>5</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>591</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>838</v>
+        <v>680</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>816</v>
+        <v>752</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>291</v>
+        <v>930</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
         <v>564</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F79" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="G79" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>305</v>
+        <v>162</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>306</v>
+        <v>163</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>839</v>
+        <v>705</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>878</v>
+        <v>907</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>308</v>
+      <c r="A80" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B80" t="s">
-        <v>566</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>454</v>
+        <v>564</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F80" t="s">
-        <v>523</v>
-      </c>
-      <c r="G80" s="2">
+        <v>530</v>
+      </c>
+      <c r="G80" s="1">
         <v>3</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>653</v>
+      <c r="H80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>840</v>
+        <v>723</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>299</v>
+        <v>894</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>312</v>
+      <c r="A81" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="B81" t="s">
-        <v>564</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>455</v>
+        <v>574</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F81" t="s">
-        <v>537</v>
-      </c>
-      <c r="G81" s="1">
-        <v>3</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>314</v>
+        <v>553</v>
+      </c>
+      <c r="G81" s="2">
+        <v>5</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>841</v>
+        <v>734</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>303</v>
+        <v>861</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>316</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
         <v>564</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F82" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="G82" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>655</v>
+        <v>107</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>842</v>
+        <v>695</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>820</v>
+        <v>767</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>871</v>
+        <v>945</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>315</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F83" t="s">
-        <v>558</v>
-      </c>
-      <c r="G83" s="2">
-        <v>3</v>
+        <v>539</v>
+      </c>
+      <c r="G83" s="1">
+        <v>5</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>321</v>
+        <v>158</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>843</v>
+        <v>704</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>821</v>
+        <v>780</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>870</v>
+        <v>908</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>323</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s">
         <v>564</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F84" t="s">
-        <v>557</v>
-      </c>
-      <c r="G84" s="1">
-        <v>4</v>
+        <v>552</v>
+      </c>
+      <c r="G84" s="2">
+        <v>3</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>328</v>
+      <c r="A85" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>564</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>462</v>
+      <c r="C85" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G85" s="2">
-        <v>3</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>658</v>
+        <v>2</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>602</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>845</v>
+        <v>691</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>823</v>
+        <v>763</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>331</v>
+        <v>941</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F86" t="s">
+        <v>549</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="K86" t="s">
+        <v>852</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" t="s">
+        <v>573</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F86" t="s">
-        <v>550</v>
-      </c>
-      <c r="G86" s="2">
-        <v>3</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="K86" t="s">
-        <v>850</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B87" t="s">
-        <v>562</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="F87" t="s">
-        <v>558</v>
-      </c>
-      <c r="G87" s="1">
-        <v>5</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>731</v>
+        <v>549</v>
+      </c>
+      <c r="G87" s="2">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="K87" t="s">
+        <v>852</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>339</v>
+        <v>873</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>340</v>
+      <c r="A88" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B88" t="s">
-        <v>562</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>465</v>
+        <v>571</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F88" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G88" s="2">
-        <v>4</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>731</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K88"/>
       <c r="L88" s="3" t="s">
-        <v>826</v>
+        <v>787</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>343</v>
+        <v>901</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>344</v>
+        <v>193</v>
       </c>
       <c r="B89" t="s">
         <v>564</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F89" t="s">
-        <v>555</v>
-      </c>
-      <c r="G89" s="2">
+        <v>550</v>
+      </c>
+      <c r="G89" s="1">
         <v>5</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>345</v>
+        <v>194</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>346</v>
+        <v>195</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>864</v>
+        <v>899</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>347</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>348</v>
+      <c r="A90" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="B90" t="s">
         <v>564</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>467</v>
+      <c r="C90" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F90" t="s">
-        <v>541</v>
-      </c>
-      <c r="G90" s="1">
+        <v>525</v>
+      </c>
+      <c r="G90" s="2">
         <v>4</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>350</v>
+      <c r="H90" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>733</v>
+        <v>842</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>351</v>
+        <v>871</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>352</v>
+      <c r="A91" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>564</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>468</v>
+        <v>563</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F91" t="s">
-        <v>522</v>
-      </c>
-      <c r="G91" s="2">
-        <v>3</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>662</v>
+        <v>540</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>607</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>829</v>
+        <v>768</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>355</v>
+        <v>946</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F92" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="G92" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>663</v>
+        <v>115</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>830</v>
+        <v>769</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>861</v>
+        <v>947</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>359</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F93" t="s">
-        <v>543</v>
-      </c>
-      <c r="G93" s="1">
+        <v>547</v>
+      </c>
+      <c r="G93" s="2">
         <v>4</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>361</v>
+        <v>166</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>664</v>
+        <v>621</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>831</v>
+        <v>782</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>860</v>
+        <v>906</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>363</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>364</v>
+      <c r="A94" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="B94" t="s">
-        <v>563</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>471</v>
+        <v>564</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F94" t="s">
-        <v>550</v>
-      </c>
-      <c r="G94" s="2">
-        <v>3</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>366</v>
+        <v>557</v>
+      </c>
+      <c r="G94" s="1">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>736</v>
+        <v>844</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>367</v>
+        <v>869</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>368</v>
+      <c r="A95" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B95" t="s">
+        <v>565</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F95" t="s">
+        <v>524</v>
+      </c>
+      <c r="G95" s="2">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B96" t="s">
         <v>563</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F95" t="s">
-        <v>551</v>
-      </c>
-      <c r="G95" s="2">
-        <v>3</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B96" t="s">
-        <v>566</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>473</v>
+      <c r="C96" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F96" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="G96" s="1">
         <v>4</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>667</v>
+      <c r="H96" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>849</v>
+        <v>735</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>375</v>
+        <v>860</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">

--- a/Integration List.xlsx
+++ b/Integration List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Integration_Hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E15BDA-E7C6-434E-BB0B-41A2BD611AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D136DE5-2496-4419-ACB1-3ACFFC82B623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{199BEFDA-6D70-4001-AC3C-82D1565D7EFD}"/>
   </bookViews>
@@ -2035,15 +2035,9 @@
     <t>https://docs.ansible.com/ansible/latest/collections/ansible/awx/</t>
   </si>
   <si>
-    <t>https://airflow.apache.org/docs/apache-airflow/stable/rest-api-ref.html</t>
-  </si>
-  <si>
     <t>https://nifi.apache.org/docs/nifi-docs/rest-api/index.html</t>
   </si>
   <si>
-    <t>https://docs.astronomer.io/astro/api</t>
-  </si>
-  <si>
     <t>https://docs.automationanywhere.com/bundle/enterprise-v2019/page/api-reference.html</t>
   </si>
   <si>
@@ -2870,6 +2864,12 @@
   </si>
   <si>
     <t>https://documents.bmc.com/supportu/9.0.22/en-US/Documentation/Integrations_Main.htm</t>
+  </si>
+  <si>
+    <t>https://airflow.apache.org/docs/apache-airflow/stable/stable-rest-api-ref.html</t>
+  </si>
+  <si>
+    <t>https://www.astronomer.io/docs/api/</t>
   </si>
 </sst>
 </file>
@@ -3359,7 +3359,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3371,16 +3371,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3834,7 +3830,7 @@
   <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,314 +3899,314 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>508</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>582</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>671</v>
+        <v>948</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>921</v>
-      </c>
-      <c r="N2" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>506</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>584</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>673</v>
+        <v>949</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>923</v>
-      </c>
-      <c r="N3" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>508</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>603</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>942</v>
-      </c>
-      <c r="N4" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>512</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>609</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="N5" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>508</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>155</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>618</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="N6" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>508</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>219</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>633</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="N7" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>509</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>254</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>642</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="N8" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -4242,13 +4238,13 @@
         <v>589</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>41</v>
@@ -4286,13 +4282,13 @@
         <v>610</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>124</v>
@@ -4330,13 +4326,13 @@
         <v>658</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>331</v>
@@ -4374,13 +4370,13 @@
         <v>665</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>367</v>
@@ -4418,13 +4414,13 @@
         <v>666</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>371</v>
@@ -4462,13 +4458,13 @@
         <v>604</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>100</v>
@@ -4506,13 +4502,13 @@
         <v>649</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>287</v>
@@ -4550,13 +4546,13 @@
         <v>649</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>319</v>
@@ -4594,13 +4590,13 @@
         <v>656</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>323</v>
@@ -4638,13 +4634,13 @@
         <v>661</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>347</v>
@@ -4685,10 +4681,10 @@
         <v>670</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>492</v>
@@ -4726,13 +4722,13 @@
         <v>615</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>144</v>
@@ -4770,13 +4766,13 @@
         <v>625</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>184</v>
@@ -4814,13 +4810,13 @@
         <v>645</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>271</v>
@@ -4858,13 +4854,13 @@
         <v>590</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>45</v>
@@ -4902,13 +4898,13 @@
         <v>596</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>69</v>
@@ -4946,13 +4942,13 @@
         <v>601</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>89</v>
@@ -4990,13 +4986,13 @@
         <v>611</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>128</v>
@@ -5034,13 +5030,13 @@
         <v>616</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>148</v>
@@ -5078,13 +5074,13 @@
         <v>623</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>176</v>
@@ -5122,13 +5118,13 @@
         <v>630</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>208</v>
@@ -5166,13 +5162,13 @@
         <v>640</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>248</v>
@@ -5210,13 +5206,13 @@
         <v>641</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>252</v>
@@ -5254,13 +5250,13 @@
         <v>653</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>299</v>
@@ -5298,13 +5294,13 @@
         <v>654</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>303</v>
@@ -5342,13 +5338,13 @@
         <v>667</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>375</v>
@@ -5386,13 +5382,13 @@
         <v>586</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>29</v>
@@ -5430,13 +5426,13 @@
         <v>597</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>73</v>
@@ -5474,13 +5470,13 @@
         <v>612</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>132</v>
@@ -5518,13 +5514,13 @@
         <v>632</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>216</v>
@@ -5562,10 +5558,10 @@
         <v>646</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M39"/>
       <c r="N39" s="2" t="s">
@@ -5576,7 +5572,7 @@
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>565</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5588,7 +5584,7 @@
       <c r="E40" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="6" t="s">
         <v>522</v>
       </c>
       <c r="G40" s="2">
@@ -5600,17 +5596,17 @@
       <c r="I40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K40" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>922</v>
+      <c r="K40" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>920</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>18</v>
@@ -5651,10 +5647,10 @@
         <v>668</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>4</v>
@@ -5695,10 +5691,10 @@
         <v>669</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>8</v>
@@ -5736,13 +5732,13 @@
         <v>587</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>33</v>
@@ -5780,13 +5776,13 @@
         <v>599</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>81</v>
@@ -5824,13 +5820,13 @@
         <v>600</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>85</v>
@@ -5868,13 +5864,13 @@
         <v>613</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>136</v>
@@ -5912,13 +5908,13 @@
         <v>624</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>180</v>
@@ -5956,13 +5952,13 @@
         <v>629</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>204</v>
@@ -6000,13 +5996,13 @@
         <v>634</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>224</v>
@@ -6044,13 +6040,13 @@
         <v>636</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>232</v>
@@ -6088,13 +6084,13 @@
         <v>637</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>236</v>
@@ -6132,13 +6128,13 @@
         <v>643</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>259</v>
@@ -6176,13 +6172,13 @@
         <v>643</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>263</v>
@@ -6220,13 +6216,13 @@
         <v>644</v>
       </c>
       <c r="K54" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>267</v>
@@ -6264,13 +6260,13 @@
         <v>647</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>275</v>
@@ -6308,13 +6304,13 @@
         <v>651</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>291</v>
@@ -6352,13 +6348,13 @@
         <v>662</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>351</v>
@@ -6396,13 +6392,13 @@
         <v>662</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>355</v>
@@ -6440,13 +6436,13 @@
         <v>588</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>37</v>
@@ -6484,13 +6480,13 @@
         <v>592</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>53</v>
@@ -6528,13 +6524,13 @@
         <v>595</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>65</v>
@@ -6572,13 +6568,13 @@
         <v>598</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>77</v>
@@ -6616,13 +6612,13 @@
         <v>605</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>104</v>
@@ -6660,13 +6656,13 @@
         <v>614</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>140</v>
@@ -6704,13 +6700,13 @@
         <v>617</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>152</v>
@@ -6748,13 +6744,13 @@
         <v>622</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>172</v>
@@ -6792,13 +6788,13 @@
         <v>626</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>192</v>
@@ -6836,13 +6832,13 @@
         <v>628</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>200</v>
@@ -6880,13 +6876,13 @@
         <v>631</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>212</v>
@@ -6924,13 +6920,13 @@
         <v>635</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>228</v>
@@ -6968,13 +6964,13 @@
         <v>638</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>240</v>
@@ -7012,13 +7008,13 @@
         <v>650</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>295</v>
@@ -7056,13 +7052,13 @@
         <v>660</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>339</v>
@@ -7100,13 +7096,13 @@
         <v>660</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>343</v>
@@ -7144,13 +7140,13 @@
         <v>593</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>57</v>
@@ -7188,13 +7184,13 @@
         <v>659</v>
       </c>
       <c r="K76" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>335</v>
@@ -7232,13 +7228,13 @@
         <v>594</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>61</v>
@@ -7276,13 +7272,13 @@
         <v>591</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>49</v>
@@ -7320,13 +7316,13 @@
         <v>620</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>164</v>
@@ -7364,13 +7360,13 @@
         <v>639</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>244</v>
@@ -7408,13 +7404,13 @@
         <v>663</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>359</v>
@@ -7452,13 +7448,13 @@
         <v>606</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>108</v>
@@ -7496,13 +7492,13 @@
         <v>619</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>160</v>
@@ -7540,13 +7536,13 @@
         <v>652</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>307</v>
@@ -7584,13 +7580,13 @@
         <v>602</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>93</v>
@@ -7628,13 +7624,13 @@
         <v>648</v>
       </c>
       <c r="K86" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>279</v>
@@ -7672,13 +7668,13 @@
         <v>648</v>
       </c>
       <c r="K87" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>283</v>
@@ -7714,10 +7710,10 @@
       </c>
       <c r="K88"/>
       <c r="L88" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>188</v>
@@ -7755,13 +7751,13 @@
         <v>627</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>196</v>
@@ -7799,13 +7795,13 @@
         <v>655</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>315</v>
@@ -7843,13 +7839,13 @@
         <v>607</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>112</v>
@@ -7887,13 +7883,13 @@
         <v>608</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>116</v>
@@ -7931,13 +7927,13 @@
         <v>621</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>168</v>
@@ -7975,13 +7971,13 @@
         <v>657</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>327</v>
@@ -8019,13 +8015,13 @@
         <v>585</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>25</v>
@@ -8063,13 +8059,13 @@
         <v>664</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>363</v>
@@ -8104,16 +8100,16 @@
         <v>378</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>379</v>
@@ -8148,16 +8144,16 @@
         <v>382</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="M98" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>383</v>
